--- a/testData/Login_praveen.xlsx
+++ b/testData/Login_praveen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Pytest\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDF5A2-F070-43A1-A2A9-D449A97493ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899386E-29A3-4259-8B56-8D5C7BACA87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>URL</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Email ID</t>
   </si>
   <si>
-    <t>https://app-goldenplatform-ciui-qa-weurope-001.azurewebsites.net/</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>prave187@in.ibm.com</t>
   </si>
   <si>
-    <t>praveenkumar@97</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>3672.00</t>
   </si>
   <si>
-    <t>20240310_CI00000003</t>
-  </si>
-  <si>
     <t>Champaca St.Brgy. Fortune18Marikina CityBusiness</t>
   </si>
   <si>
@@ -243,6 +234,18 @@
   </si>
   <si>
     <t>Km 22 Ortigas Avenue Extension. Bo. Mapandan Cainta Rizal. Philippines 1900</t>
+  </si>
+  <si>
+    <t>20240508_CI00000004</t>
+  </si>
+  <si>
+    <t>PT1_@ibmea.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>Password_PT_01</t>
+  </si>
+  <si>
+    <t>https://app-aod-openai-i2pciui-demo-weurope-002.azurewebsites.net/</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,230 +696,230 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>2990</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3">
         <v>2990</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4">
         <v>2990</v>
       </c>
       <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5">
         <v>2990</v>
       </c>
       <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
       <c r="G6">
         <v>2990</v>
       </c>
       <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
       <c r="G7">
         <v>2990</v>
       </c>
       <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6388A789-E876-482F-815B-DA66D784C37F}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{4359914F-6C46-4254-B8D9-E6D80768DFBB}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{EE87BB7C-CAAC-4430-B6FB-29740D4E777A}"/>
+    <hyperlink ref="C2" r:id="rId3" display="praveenkumar@97" xr:uid="{EE87BB7C-CAAC-4430-B6FB-29740D4E777A}"/>
     <hyperlink ref="D2" r:id="rId4" tooltip="20231211_CI00000010" display="https://uat.amway.iwforinvoicetopay.ibm.com/agent-table-page/9ebe9032-3164-439a-9dea-c6b6c3ed5bd5" xr:uid="{EE242648-6D38-4143-9B48-0EDF60C13340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -941,146 +944,146 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1110,18 +1113,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1129,23 +1132,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1153,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1161,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1169,23 +1172,23 @@
         <v>45020698491</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
